--- a/excels/Attendance_Report_August_2025.xlsx
+++ b/excels/Attendance_Report_August_2025.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Employee Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,10 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
@@ -99,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -111,6 +115,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +495,7 @@
   <cols>
     <col width="46" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,21 +508,21 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Total Entries: 1</t>
+          <t>Total Entries: 2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Total Present: 0</t>
+          <t>Total Present: 2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total Late: 1</t>
+          <t>Total Late: 0</t>
         </is>
       </c>
     </row>
@@ -553,17 +560,34 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
+          <t>MSN001</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Ramsha Tariq</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
           <t>MSN002</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Tehreem Siddiqui</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Late</t>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
